--- a/biology/Zoologie/Barbu_(oiseau)/Barbu_(oiseau).xlsx
+++ b/biology/Zoologie/Barbu_(oiseau)/Barbu_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbu est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 26 espèces d'oiseaux qui constituent 3 genres : Calorhamphus, Megalaima et Psilopogon, de la famille des Capitonidae selon HBW et Clements ou de la famille des Ramphastidae selon Howard &amp; Moore[1] et le Congrès ornithologique international. Leur ordre est celui des Piciformes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbu est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 26 espèces d'oiseaux qui constituent 3 genres : Calorhamphus, Megalaima et Psilopogon, de la famille des Capitonidae selon HBW et Clements ou de la famille des Ramphastidae selon Howard &amp; Moore et le Congrès ornithologique international. Leur ordre est celui des Piciformes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oiseaux doivent leur nom aux pinceaux de soies, fines plumes, entourant leur bec et leur menton[2]. Leur tête est grosse, leurs ailes sont courtes pour un corps trapu et des pattes robustes. Ils ont une petite queue, qu'il tiennent souvent un peu redressée[3]. Leur allure rappelle les toucans et, comme eux, ils sont souvent vivement colorés.
-On les trouve en Asie, où ils sont principalement frugivores, en Amérique et en Afrique où ils sont plutôt insectivores[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oiseaux doivent leur nom aux pinceaux de soies, fines plumes, entourant leur bec et leur menton. Leur tête est grosse, leurs ailes sont courtes pour un corps trapu et des pattes robustes. Ils ont une petite queue, qu'il tiennent souvent un peu redressée. Leur allure rappelle les toucans et, comme eux, ils sont souvent vivement colorés.
+On les trouve en Asie, où ils sont principalement frugivores, en Amérique et en Afrique où ils sont plutôt insectivores.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,8 +587,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les barbus de la CINFO
-Selon la Commission internationale des noms français des oiseaux :
+          <t>Les barbus de la CINFO</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la Commission internationale des noms français des oiseaux :
 Barbu arlequin – Megalaima mystacophanos
 Barbu bigarré – Megalaima rafflesii
 Barbu à calotte bleue – Megalaima australis
